--- a/statistics/lisa10-benchmarks.xlsx
+++ b/statistics/lisa10-benchmarks.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>units=ms</t>
   </si>
@@ -39,6 +39,72 @@
   </si>
   <si>
     <t>alpha</t>
+  </si>
+  <si>
+    <t>r=100;c=3;sm=3;no-tup</t>
+  </si>
+  <si>
+    <t>r=100;c=3;sm=3;tup</t>
+  </si>
+  <si>
+    <t>r=1000;c=14;sm=6;no-tup</t>
+  </si>
+  <si>
+    <t>r=1000;c=14;sm=6;tup</t>
+  </si>
+  <si>
+    <t>r=1000;c=14;sm=10;no-tup</t>
+  </si>
+  <si>
+    <t>r=100;c=14;sm=10;tup</t>
+  </si>
+  <si>
+    <t>r=100;c=14;sm=14;no-tup</t>
+  </si>
+  <si>
+    <t>r=100;c=14;sm=14;tup</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>milliseconds</t>
+  </si>
+  <si>
+    <t>conf interval</t>
+  </si>
+  <si>
+    <t>Time to generate list of superfluous rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data processing </t>
+  </si>
+  <si>
+    <t>Time to generate first overshadow list</t>
+  </si>
+  <si>
+    <t>Time to generate second overshadow list</t>
+  </si>
+  <si>
+    <t>Time to load InboundACL</t>
+  </si>
+  <si>
+    <t>Time: Load original policy (all .p files)</t>
+  </si>
+  <si>
+    <t>Time: load first change (all .p files)</t>
+  </si>
+  <si>
+    <t>Time: load second change (all .p files)</t>
+  </si>
+  <si>
+    <t>Total loading time</t>
+  </si>
+  <si>
+    <t>Time to run final query</t>
+  </si>
+  <si>
+    <t>Total time used by queries</t>
   </si>
 </sst>
 </file>
@@ -863,7 +929,7 @@
   <dimension ref="A1:AA1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1074,6 +1140,32 @@
         <v>1204.8599999999999</v>
       </c>
     </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>1</v>
@@ -18725,15 +18817,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A10:F109"/>
+  <dimension ref="A2:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F109"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:6">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f>CONFIDENCE($G$4, A6, 208)</f>
+        <v>52.47857609008377</v>
+      </c>
+      <c r="B4">
+        <f>CONFIDENCE($G$4, B6, 208)</f>
+        <v>53.089850707320821</v>
+      </c>
+      <c r="C4">
+        <f>CONFIDENCE($G$4, C6, 208)</f>
+        <v>37.001622543623412</v>
+      </c>
+      <c r="D4">
+        <f>CONFIDENCE($G$4, D6, 208)</f>
+        <v>105.27268421582775</v>
+      </c>
+      <c r="E4">
+        <f>CONFIDENCE($G$4, E6, 208)</f>
+        <v>36.766617564729827</v>
+      </c>
+      <c r="F4">
+        <f>CONFIDENCE($G$4, F6, 208)</f>
+        <v>60.453381697884119</v>
+      </c>
+      <c r="G4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f>STDEV(A10:A1011)</f>
+        <v>386.15851811284898</v>
+      </c>
+      <c r="B6">
+        <f>STDEV(B10:B1011)</f>
+        <v>390.65652316441634</v>
+      </c>
+      <c r="C6">
+        <f>STDEV(C10:C1011)</f>
+        <v>272.27285482535268</v>
+      </c>
+      <c r="D6">
+        <f>STDEV(D10:D1011)</f>
+        <v>774.63884814183155</v>
+      </c>
+      <c r="E6">
+        <f>STDEV(E10:E1011)</f>
+        <v>270.54359345509545</v>
+      </c>
+      <c r="F6">
+        <f>STDEV(F10:F1011)</f>
+        <v>444.84035259059738</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f>AVERAGE(A10:A1011)</f>
+        <v>4091.23</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B10:B1011)</f>
+        <v>3388.31</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(C10:C1011)</f>
+        <v>3246.24</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(D10:D1011)</f>
+        <v>10725.78</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(E10:E1011)</f>
+        <v>350.68</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(F10:F1011)</f>
+        <v>8725.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>4140</v>
       </c>
@@ -18753,7 +18978,7 @@
         <v>8625</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3890</v>
       </c>
@@ -18773,7 +18998,7 @@
         <v>9234</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>4281</v>
       </c>
@@ -18793,7 +19018,7 @@
         <v>8515</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3922</v>
       </c>
@@ -18813,7 +19038,7 @@
         <v>8469</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>3953</v>
       </c>
@@ -18833,7 +19058,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>4047</v>
       </c>
@@ -18853,7 +19078,7 @@
         <v>11719</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>4282</v>
       </c>
@@ -20740,15 +20965,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A10:F109"/>
+  <dimension ref="A2:G109"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F109"/>
+      <selection activeCell="H9" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:6">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f>CONFIDENCE($G$4, A6, 208)</f>
+        <v>50.699884151984165</v>
+      </c>
+      <c r="B4">
+        <f>CONFIDENCE($G$4, B6, 208)</f>
+        <v>32.021628766508499</v>
+      </c>
+      <c r="C4">
+        <f>CONFIDENCE($G$4, C6, 208)</f>
+        <v>45.493775983240113</v>
+      </c>
+      <c r="D4">
+        <f>CONFIDENCE($G$4, D6, 208)</f>
+        <v>87.475918469736627</v>
+      </c>
+      <c r="E4">
+        <f>CONFIDENCE($G$4, E6, 208)</f>
+        <v>7.3998489402601741</v>
+      </c>
+      <c r="F4">
+        <f>CONFIDENCE($G$4, F6, 208)</f>
+        <v>20.706680567196187</v>
+      </c>
+      <c r="G4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f>STDEV(A10:A1011)</f>
+        <v>373.07018580336012</v>
+      </c>
+      <c r="B6">
+        <f>STDEV(B10:B1011)</f>
+        <v>235.62805307080805</v>
+      </c>
+      <c r="C6">
+        <f>STDEV(C10:C1011)</f>
+        <v>334.76154320363685</v>
+      </c>
+      <c r="D6">
+        <f>STDEV(D10:D1011)</f>
+        <v>643.68307152329157</v>
+      </c>
+      <c r="E6">
+        <f>STDEV(E10:E1011)</f>
+        <v>54.451071540596814</v>
+      </c>
+      <c r="F6">
+        <f>STDEV(F10:F1011)</f>
+        <v>152.36810292144196</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f>AVERAGE(A10:A1011)</f>
+        <v>3957.01</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B10:B1011)</f>
+        <v>3213.92</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(C10:C1011)</f>
+        <v>3191.39</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(D10:D1011)</f>
+        <v>10362.32</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(E10:E1011)</f>
+        <v>222.5</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(F10:F1011)</f>
+        <v>2750.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>4000</v>
       </c>
@@ -20768,7 +21126,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3860</v>
       </c>
@@ -20788,7 +21146,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>3891</v>
       </c>
@@ -20808,7 +21166,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3860</v>
       </c>
@@ -20828,7 +21186,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>3828</v>
       </c>
@@ -20848,7 +21206,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>3938</v>
       </c>
@@ -20868,7 +21226,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>3891</v>
       </c>
@@ -22767,2937 +23125,3681 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A10:D218"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="A3" sqref="A3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="1:4">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f>CONFIDENCE($G$4, A6, 208)</f>
+        <v>109.14654485507783</v>
+      </c>
+      <c r="B4">
+        <f>CONFIDENCE($G$4, B6, 208)</f>
+        <v>59.215791184852968</v>
+      </c>
+      <c r="C4">
+        <f>CONFIDENCE($G$4, C6, 208)</f>
+        <v>91.449265549749867</v>
+      </c>
+      <c r="D4">
+        <f>CONFIDENCE($G$4, D6, 208)</f>
+        <v>141.61995152991315</v>
+      </c>
+      <c r="E4">
+        <f>CONFIDENCE($G$4, E6, 208)</f>
+        <v>85.424299379938631</v>
+      </c>
+      <c r="G4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f>STDEV(A10:A1011)</f>
+        <v>803.14427636192329</v>
+      </c>
+      <c r="B6">
+        <f>STDEV(B10:B1011)</f>
+        <v>435.73366269637722</v>
+      </c>
+      <c r="C6">
+        <f>STDEV(C10:C1011)</f>
+        <v>672.9205610796414</v>
+      </c>
+      <c r="D6">
+        <f>STDEV(D10:D1011)</f>
+        <v>1042.0966934035855</v>
+      </c>
+      <c r="E6">
+        <f>STDEV(E10:E1011)</f>
+        <v>628.58643120880481</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f>AVERAGE(A10:A1011)</f>
+        <v>10693.799043062201</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B10:B1011)</f>
+        <v>22577.799043062201</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(C10:C1011)</f>
+        <v>2299.803827751196</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(D10:D1011)</f>
+        <v>54694.97129186603</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(E10:E1011)</f>
+        <v>17482.87081339713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
+        <v>10343</v>
+      </c>
+      <c r="B10">
         <v>23765</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2485</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>57343</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>17235</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11">
+        <v>10391</v>
+      </c>
+      <c r="B11">
         <v>22641</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2406</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>54766</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>17047</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12">
+        <v>10266</v>
+      </c>
+      <c r="B12">
         <v>22656</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2375</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>54062</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13">
+        <v>10593</v>
+      </c>
+      <c r="B13">
         <v>23547</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2469</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>51359</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>17094</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14">
+        <v>10250</v>
+      </c>
+      <c r="B14">
         <v>22890</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2438</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>55297</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>18125</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15">
+        <v>10218</v>
+      </c>
+      <c r="B15">
         <v>22750</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1688</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>55031</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>16203</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16">
+        <v>10250</v>
+      </c>
+      <c r="B16">
         <v>22484</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1703</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>57563</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>17047</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17">
+        <v>12063</v>
+      </c>
+      <c r="B17">
         <v>22984</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3282</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>56078</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>17953</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18">
+        <v>10281</v>
+      </c>
+      <c r="B18">
         <v>22844</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1718</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>54907</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>16937</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19">
+        <v>10204</v>
+      </c>
+      <c r="B19">
         <v>22734</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2469</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>55875</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>17562</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20">
+        <v>10329</v>
+      </c>
+      <c r="B20">
         <v>23344</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2390</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>54985</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>18203</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21">
+        <v>11875</v>
+      </c>
+      <c r="B21">
         <v>22297</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>3265</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>53203</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>18657</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22">
+        <v>10157</v>
+      </c>
+      <c r="B22">
         <v>22156</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2485</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>53937</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>16406</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23">
+        <v>10172</v>
+      </c>
+      <c r="B23">
         <v>22515</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1750</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>52485</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>18234</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24">
+        <v>10109</v>
+      </c>
+      <c r="B24">
         <v>23187</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1735</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>53859</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>17359</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25">
+        <v>11625</v>
+      </c>
+      <c r="B25">
         <v>22937</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2516</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>55172</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>18063</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26">
+        <v>10172</v>
+      </c>
+      <c r="B26">
         <v>22687</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2484</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>54063</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>16296</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27">
+        <v>10156</v>
+      </c>
+      <c r="B27">
         <v>21688</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1750</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>54578</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>17516</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28">
+        <v>11594</v>
+      </c>
+      <c r="B28">
         <v>22860</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>3218</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>54797</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>17766</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29">
+        <v>10188</v>
+      </c>
+      <c r="B29">
         <v>22828</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>2484</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>54391</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>18016</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30">
+        <v>10172</v>
+      </c>
+      <c r="B30">
         <v>22421</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>2500</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>55657</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>16891</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31">
+        <v>10171</v>
+      </c>
+      <c r="B31">
         <v>22625</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>1750</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>54797</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>18500</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32">
+        <v>11938</v>
+      </c>
+      <c r="B32">
         <v>22032</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>3265</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>54750</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>17344</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33">
+        <v>10140</v>
+      </c>
+      <c r="B33">
         <v>22562</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>2500</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>55235</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>17437</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34">
+        <v>10157</v>
+      </c>
+      <c r="B34">
         <v>22609</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>1750</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>54719</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>17359</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35">
+        <v>11609</v>
+      </c>
+      <c r="B35">
         <v>22406</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>3219</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>54172</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>17078</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36">
+        <v>10172</v>
+      </c>
+      <c r="B36">
         <v>21938</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>2484</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>54828</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>17188</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37">
+        <v>10125</v>
+      </c>
+      <c r="B37">
         <v>22110</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>1750</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>55515</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>17157</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38">
+        <v>10125</v>
+      </c>
+      <c r="B38">
         <v>22593</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>1750</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>53594</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>17812</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39">
+        <v>11906</v>
+      </c>
+      <c r="B39">
         <v>22765</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>3281</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>53719</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>16953</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40">
+        <v>10156</v>
+      </c>
+      <c r="B40">
         <v>22813</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>1750</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>55328</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>17140</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41">
+        <v>10125</v>
+      </c>
+      <c r="B41">
         <v>22781</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>1734</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>55656</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>17063</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42">
+        <v>11891</v>
+      </c>
+      <c r="B42">
         <v>22406</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>3282</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>54062</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>16500</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43">
+        <v>10140</v>
+      </c>
+      <c r="B43">
         <v>22391</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>1765</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>56094</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>17078</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44">
+        <v>10141</v>
+      </c>
+      <c r="B44">
         <v>22703</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>1750</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>54812</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>16672</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45">
+        <v>11953</v>
+      </c>
+      <c r="B45">
         <v>22484</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3297</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>53922</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>17812</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46">
+        <v>10172</v>
+      </c>
+      <c r="B46">
         <v>21984</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>1766</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>52375</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>16875</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47">
+        <v>10140</v>
+      </c>
+      <c r="B47">
         <v>22281</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>1750</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>54344</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>17687</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48">
+        <v>11969</v>
+      </c>
+      <c r="B48">
         <v>22063</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>3281</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>55141</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>17781</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49">
+        <v>10172</v>
+      </c>
+      <c r="B49">
         <v>22219</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>1766</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>55828</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>17547</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50">
+        <v>10141</v>
+      </c>
+      <c r="B50">
         <v>22281</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>1734</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>54328</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>17704</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51">
+        <v>11937</v>
+      </c>
+      <c r="B51">
         <v>22500</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>3297</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>53828</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>17172</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52">
+        <v>10172</v>
+      </c>
+      <c r="B52">
         <v>23250</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>1781</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>56407</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>18422</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53">
+        <v>10172</v>
+      </c>
+      <c r="B53">
         <v>21843</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>1750</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>55000</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>17610</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54">
+        <v>11938</v>
+      </c>
+      <c r="B54">
         <v>23047</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>3297</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>55390</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>19188</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55">
+        <v>10156</v>
+      </c>
+      <c r="B55">
         <v>21797</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>1766</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>55734</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>17719</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56">
+        <v>10172</v>
+      </c>
+      <c r="B56">
         <v>23313</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>1734</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>54641</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>16547</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57">
+        <v>11907</v>
+      </c>
+      <c r="B57">
         <v>22407</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>3328</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>57562</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>16938</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58">
+        <v>10188</v>
+      </c>
+      <c r="B58">
         <v>22703</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>1766</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>55250</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>17625</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59">
+        <v>10156</v>
+      </c>
+      <c r="B59">
         <v>21578</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>1734</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>53703</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>17047</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60">
+        <v>11937</v>
+      </c>
+      <c r="B60">
         <v>22656</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>3297</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>55266</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>17953</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61">
+        <v>10172</v>
+      </c>
+      <c r="B61">
         <v>22906</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>1750</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>54360</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>17109</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62">
+        <v>10140</v>
+      </c>
+      <c r="B62">
         <v>22641</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>1750</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>53297</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>16546</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63">
+        <v>11938</v>
+      </c>
+      <c r="B63">
         <v>22734</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>3297</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>54313</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>17703</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64">
+        <v>10171</v>
+      </c>
+      <c r="B64">
         <v>22328</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>1750</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>54890</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>18016</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65">
+        <v>10156</v>
+      </c>
+      <c r="B65">
         <v>22657</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>1750</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>56328</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>18437</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66">
+        <v>11938</v>
+      </c>
+      <c r="B66">
         <v>23125</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>3297</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>55594</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>18781</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67">
+        <v>10157</v>
+      </c>
+      <c r="B67">
         <v>21891</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>1766</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>55109</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>18031</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68">
+        <v>10156</v>
+      </c>
+      <c r="B68">
         <v>22078</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>1734</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>54844</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>17625</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69">
+        <v>11922</v>
+      </c>
+      <c r="B69">
         <v>22937</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>3297</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>54641</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>18046</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70">
+        <v>10141</v>
+      </c>
+      <c r="B70">
         <v>22484</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>1766</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>55219</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>17438</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71">
+        <v>10141</v>
+      </c>
+      <c r="B71">
         <v>22531</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>1735</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>55187</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>17141</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72">
+        <v>11937</v>
+      </c>
+      <c r="B72">
         <v>22422</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>3312</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>53891</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>16812</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73">
+        <v>10172</v>
+      </c>
+      <c r="B73">
         <v>22625</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>1750</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>55437</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>18125</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74">
+        <v>10156</v>
+      </c>
+      <c r="B74">
         <v>22407</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1750</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>55000</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>17687</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75">
+        <v>11922</v>
+      </c>
+      <c r="B75">
         <v>22422</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>3296</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>54782</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>18312</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76">
+        <v>10156</v>
+      </c>
+      <c r="B76">
         <v>21829</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>1875</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>56484</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>16781</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77">
+        <v>10140</v>
+      </c>
+      <c r="B77">
         <v>22406</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>1734</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>54782</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>18578</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78">
+        <v>11954</v>
+      </c>
+      <c r="B78">
         <v>23156</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>3297</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>54281</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>16688</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79">
+        <v>10203</v>
+      </c>
+      <c r="B79">
         <v>21953</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>1765</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>55110</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>17265</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80">
+        <v>10141</v>
+      </c>
+      <c r="B80">
         <v>22375</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>1735</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>53796</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>17500</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81">
+        <v>11922</v>
+      </c>
+      <c r="B81">
         <v>22687</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>3297</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>54219</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>16656</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82">
+        <v>10140</v>
+      </c>
+      <c r="B82">
         <v>21781</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>1766</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>55047</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>17172</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83">
+        <v>10156</v>
+      </c>
+      <c r="B83">
         <v>22875</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>1750</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>55531</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>16922</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84">
+        <v>11953</v>
+      </c>
+      <c r="B84">
         <v>22766</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>3313</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>54906</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>16297</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85">
+        <v>10157</v>
+      </c>
+      <c r="B85">
         <v>22906</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>1766</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>55781</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>17875</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86">
+        <v>10156</v>
+      </c>
+      <c r="B86">
         <v>22515</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>1750</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>53813</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>17765</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87">
+        <v>11969</v>
+      </c>
+      <c r="B87">
         <v>22359</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>3297</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>54859</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>16656</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88">
+        <v>10157</v>
+      </c>
+      <c r="B88">
         <v>22891</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>1765</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>56266</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>16391</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89">
+        <v>10141</v>
+      </c>
+      <c r="B89">
         <v>22860</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>1765</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>54547</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>17797</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90">
+        <v>11921</v>
+      </c>
+      <c r="B90">
         <v>23250</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>3313</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>52765</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>16485</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91">
+        <v>10141</v>
+      </c>
+      <c r="B91">
         <v>23328</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>1766</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>53593</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>17938</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92">
+        <v>10157</v>
+      </c>
+      <c r="B92">
         <v>22265</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>1750</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>54766</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>17875</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93">
+        <v>11954</v>
+      </c>
+      <c r="B93">
         <v>22375</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>3297</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>55360</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>18468</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94">
+        <v>10157</v>
+      </c>
+      <c r="B94">
         <v>22594</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>1766</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>54609</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>16485</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95">
+        <v>10141</v>
+      </c>
+      <c r="B95">
         <v>22250</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>1750</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>52922</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>16343</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96">
+        <v>11938</v>
+      </c>
+      <c r="B96">
         <v>22391</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>3312</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>56594</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>18391</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97">
+        <v>10156</v>
+      </c>
+      <c r="B97">
         <v>22703</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>1750</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>54563</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>17953</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5">
       <c r="A98">
+        <v>10125</v>
+      </c>
+      <c r="B98">
         <v>22344</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>1750</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>55672</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>17391</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5">
       <c r="A99">
+        <v>11922</v>
+      </c>
+      <c r="B99">
         <v>22969</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>3297</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>53359</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>18625</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5">
       <c r="A100">
+        <v>10156</v>
+      </c>
+      <c r="B100">
         <v>22782</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>1765</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>54985</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>16765</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5">
       <c r="A101">
+        <v>10156</v>
+      </c>
+      <c r="B101">
         <v>23078</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>1750</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>54328</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>17532</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5">
       <c r="A102">
+        <v>11984</v>
+      </c>
+      <c r="B102">
         <v>21703</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>3313</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>55812</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>17391</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5">
       <c r="A103">
+        <v>10172</v>
+      </c>
+      <c r="B103">
         <v>22593</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>1766</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>55656</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>18203</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5">
       <c r="A104">
+        <v>10141</v>
+      </c>
+      <c r="B104">
         <v>21687</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>1750</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>55344</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>17515</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5">
       <c r="A105">
+        <v>11938</v>
+      </c>
+      <c r="B105">
         <v>23282</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>3328</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>54531</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>16172</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:5">
       <c r="A106">
+        <v>10156</v>
+      </c>
+      <c r="B106">
         <v>22656</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>1766</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>54875</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>16812</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107">
+        <v>10140</v>
+      </c>
+      <c r="B107">
         <v>22844</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>1766</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>56609</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>17781</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5">
       <c r="A108">
+        <v>11938</v>
+      </c>
+      <c r="B108">
         <v>22531</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>3359</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>55828</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>18110</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109">
+        <v>10172</v>
+      </c>
+      <c r="B109">
         <v>23031</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>1766</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>55312</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>17625</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5">
       <c r="A110">
+        <v>10125</v>
+      </c>
+      <c r="B110">
         <v>22547</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>1765</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>54422</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>17781</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111">
+        <v>11937</v>
+      </c>
+      <c r="B111">
         <v>22375</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>3313</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>55078</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>17062</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112">
+        <v>10172</v>
+      </c>
+      <c r="B112">
         <v>22204</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>1765</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>54547</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>17593</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113">
+        <v>10141</v>
+      </c>
+      <c r="B113">
         <v>22344</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>1765</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>54000</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>16313</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114">
+        <v>11969</v>
+      </c>
+      <c r="B114">
         <v>22609</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>3313</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>54328</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>17187</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115">
+        <v>10172</v>
+      </c>
+      <c r="B115">
         <v>23406</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>1766</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>56406</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>16516</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116">
+        <v>10141</v>
+      </c>
+      <c r="B116">
         <v>23032</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>1750</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>54953</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>18047</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="A117">
+        <v>11906</v>
+      </c>
+      <c r="B117">
         <v>22250</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>3312</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>54125</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>17985</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:5">
       <c r="A118">
+        <v>10141</v>
+      </c>
+      <c r="B118">
         <v>23204</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>1781</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>55656</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>17938</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:5">
       <c r="A119">
+        <v>10156</v>
+      </c>
+      <c r="B119">
         <v>22391</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>1765</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>55328</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>18204</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:5">
       <c r="A120">
+        <v>11922</v>
+      </c>
+      <c r="B120">
         <v>22968</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>3297</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>55141</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>17438</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:5">
       <c r="A121">
+        <v>10156</v>
+      </c>
+      <c r="B121">
         <v>22359</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>1766</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>55094</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>18625</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="A122">
+        <v>10141</v>
+      </c>
+      <c r="B122">
         <v>22485</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>1734</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>53125</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>16797</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:5">
       <c r="A123">
+        <v>11969</v>
+      </c>
+      <c r="B123">
         <v>22875</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>3313</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>54500</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>16890</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:5">
       <c r="A124">
+        <v>10172</v>
+      </c>
+      <c r="B124">
         <v>22344</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>1765</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>56094</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>17766</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="A125">
+        <v>10141</v>
+      </c>
+      <c r="B125">
         <v>22625</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>1734</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>54547</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>16875</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:5">
       <c r="A126">
+        <v>11953</v>
+      </c>
+      <c r="B126">
         <v>21641</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>3328</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>55437</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>17313</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5">
       <c r="A127">
+        <v>10094</v>
+      </c>
+      <c r="B127">
         <v>22500</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>1750</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>55312</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>17422</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:5">
       <c r="A128">
+        <v>10125</v>
+      </c>
+      <c r="B128">
         <v>22562</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>1734</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>53500</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>17922</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:5">
       <c r="A129">
+        <v>11922</v>
+      </c>
+      <c r="B129">
         <v>22437</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>3313</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>54406</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>17625</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:5">
       <c r="A130">
+        <v>10156</v>
+      </c>
+      <c r="B130">
         <v>21812</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>1766</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>56641</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>17063</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:5">
       <c r="A131">
+        <v>10156</v>
+      </c>
+      <c r="B131">
         <v>22297</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>1750</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>53953</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>17594</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:5">
       <c r="A132">
+        <v>12016</v>
+      </c>
+      <c r="B132">
         <v>22828</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>3297</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>54781</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>16656</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:5">
       <c r="A133">
+        <v>10172</v>
+      </c>
+      <c r="B133">
         <v>22578</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>1766</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>55421</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>17454</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="A134">
+        <v>10125</v>
+      </c>
+      <c r="B134">
         <v>22625</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>1735</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>54265</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>17594</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:5">
       <c r="A135">
+        <v>11953</v>
+      </c>
+      <c r="B135">
         <v>23157</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>3312</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>53985</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>17937</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5">
       <c r="A136">
+        <v>10156</v>
+      </c>
+      <c r="B136">
         <v>23063</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>1766</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>55906</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>18062</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:5">
       <c r="A137">
+        <v>10156</v>
+      </c>
+      <c r="B137">
         <v>22328</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>1734</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>54281</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>17110</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:5">
       <c r="A138">
+        <v>11657</v>
+      </c>
+      <c r="B138">
         <v>22547</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>2562</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>54188</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>16875</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:5">
       <c r="A139">
+        <v>10140</v>
+      </c>
+      <c r="B139">
         <v>22594</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>2515</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>54563</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>18203</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:5">
       <c r="A140">
+        <v>10157</v>
+      </c>
+      <c r="B140">
         <v>22703</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>1781</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>54641</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>18343</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:5">
       <c r="A141">
+        <v>11953</v>
+      </c>
+      <c r="B141">
         <v>22969</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>3312</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>54031</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>18344</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:5">
       <c r="A142">
+        <v>10156</v>
+      </c>
+      <c r="B142">
         <v>22484</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>1750</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>54391</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>17718</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:5">
       <c r="A143">
+        <v>10125</v>
+      </c>
+      <c r="B143">
         <v>22265</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>1750</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>54500</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>18422</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:5">
       <c r="A144">
+        <v>11672</v>
+      </c>
+      <c r="B144">
         <v>23125</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>2547</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>54047</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>18312</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:5">
       <c r="A145">
+        <v>10203</v>
+      </c>
+      <c r="B145">
         <v>22078</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>2531</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>55172</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>17422</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:5">
       <c r="A146">
+        <v>10157</v>
+      </c>
+      <c r="B146">
         <v>22360</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>1750</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>54343</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>18422</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:5">
       <c r="A147">
+        <v>11890</v>
+      </c>
+      <c r="B147">
         <v>23094</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>3312</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>55235</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>18015</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:5">
       <c r="A148">
+        <v>10125</v>
+      </c>
+      <c r="B148">
         <v>22109</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>1750</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>53516</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>17265</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:5">
       <c r="A149">
+        <v>10156</v>
+      </c>
+      <c r="B149">
         <v>22516</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>1750</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>54203</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>17484</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:5">
       <c r="A150">
+        <v>11953</v>
+      </c>
+      <c r="B150">
         <v>22859</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>3313</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>52765</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>18156</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:5">
       <c r="A151">
+        <v>10156</v>
+      </c>
+      <c r="B151">
         <v>22297</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>1766</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>55875</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>18031</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:5">
       <c r="A152">
+        <v>10125</v>
+      </c>
+      <c r="B152">
         <v>22500</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>1766</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>54531</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>17750</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:5">
       <c r="A153">
+        <v>11937</v>
+      </c>
+      <c r="B153">
         <v>22797</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>3313</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>53562</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>16657</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="A154">
+        <v>10125</v>
+      </c>
+      <c r="B154">
         <v>22187</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>1766</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>56218</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>18079</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:5">
       <c r="A155">
+        <v>10156</v>
+      </c>
+      <c r="B155">
         <v>23125</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>1750</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>54500</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>17563</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:5">
       <c r="A156">
+        <v>11938</v>
+      </c>
+      <c r="B156">
         <v>22578</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>3328</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>55110</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>17265</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:5">
       <c r="A157">
+        <v>10156</v>
+      </c>
+      <c r="B157">
         <v>23078</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>1765</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>55344</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>17360</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:5">
       <c r="A158">
+        <v>10171</v>
+      </c>
+      <c r="B158">
         <v>22703</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>1750</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>54735</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>16547</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:5">
       <c r="A159">
+        <v>11953</v>
+      </c>
+      <c r="B159">
         <v>22531</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>3329</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>54718</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>17735</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:5">
       <c r="A160">
+        <v>10141</v>
+      </c>
+      <c r="B160">
         <v>22890</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>1766</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>56406</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>18406</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:5">
       <c r="A161">
+        <v>10141</v>
+      </c>
+      <c r="B161">
         <v>21563</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>1750</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>55016</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>17500</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:5">
       <c r="A162">
+        <v>11641</v>
+      </c>
+      <c r="B162">
         <v>22719</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>2547</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>54938</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>17422</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:5">
       <c r="A163">
+        <v>10156</v>
+      </c>
+      <c r="B163">
         <v>22625</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>2516</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>52203</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>17562</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:5">
       <c r="A164">
+        <v>10156</v>
+      </c>
+      <c r="B164">
         <v>22218</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>1750</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>55235</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>17359</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:5">
       <c r="A165">
+        <v>11953</v>
+      </c>
+      <c r="B165">
         <v>23078</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>3313</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>55390</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>17203</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:5">
       <c r="A166">
+        <v>10172</v>
+      </c>
+      <c r="B166">
         <v>22766</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>1765</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>55438</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>16969</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:5">
       <c r="A167">
+        <v>10156</v>
+      </c>
+      <c r="B167">
         <v>22843</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>1750</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>55282</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>17968</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:5">
       <c r="A168">
+        <v>11719</v>
+      </c>
+      <c r="B168">
         <v>23266</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>2562</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>54844</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>16703</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:5">
       <c r="A169">
+        <v>10156</v>
+      </c>
+      <c r="B169">
         <v>22297</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>2516</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>54062</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>17359</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:5">
       <c r="A170">
+        <v>10156</v>
+      </c>
+      <c r="B170">
         <v>22281</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>1735</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>55359</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>16985</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:5">
       <c r="A171">
+        <v>11938</v>
+      </c>
+      <c r="B171">
         <v>22015</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>3313</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>53953</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>18110</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:5">
       <c r="A172">
+        <v>10125</v>
+      </c>
+      <c r="B172">
         <v>22781</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>1813</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>54359</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>17047</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:5">
       <c r="A173">
+        <v>10157</v>
+      </c>
+      <c r="B173">
         <v>22687</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>1750</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>53969</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>16844</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:5">
       <c r="A174">
+        <v>11984</v>
+      </c>
+      <c r="B174">
         <v>23000</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>3328</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>52984</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>16891</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5">
       <c r="A175">
+        <v>10140</v>
+      </c>
+      <c r="B175">
         <v>22265</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>1766</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>56953</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>17984</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:5">
       <c r="A176">
+        <v>10156</v>
+      </c>
+      <c r="B176">
         <v>23172</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>1750</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>53953</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>17875</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:5">
       <c r="A177">
+        <v>11953</v>
+      </c>
+      <c r="B177">
         <v>22375</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>3312</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>57235</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>16562</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:5">
       <c r="A178">
+        <v>10187</v>
+      </c>
+      <c r="B178">
         <v>22953</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>1765</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>54844</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>18125</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:5">
       <c r="A179">
+        <v>10156</v>
+      </c>
+      <c r="B179">
         <v>22110</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>1750</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>54375</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>17563</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:5">
       <c r="A180">
+        <v>11812</v>
+      </c>
+      <c r="B180">
         <v>23219</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>3297</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>53250</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>16531</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:5">
       <c r="A181">
+        <v>10141</v>
+      </c>
+      <c r="B181">
         <v>23125</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>2516</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>54359</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>17953</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:5">
       <c r="A182">
+        <v>10156</v>
+      </c>
+      <c r="B182">
         <v>22390</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>1750</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>54985</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>17937</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:5">
       <c r="A183">
+        <v>11891</v>
+      </c>
+      <c r="B183">
         <v>22968</v>
       </c>
-      <c r="B183">
+      <c r="C183">
         <v>3329</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>52593</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>18641</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:5">
       <c r="A184">
+        <v>10140</v>
+      </c>
+      <c r="B184">
         <v>22984</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>1766</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>54922</v>
       </c>
-      <c r="D184">
+      <c r="E184">
         <v>17515</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:5">
       <c r="A185">
+        <v>10156</v>
+      </c>
+      <c r="B185">
         <v>22187</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>1750</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>55266</v>
       </c>
-      <c r="D185">
+      <c r="E185">
         <v>17875</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:5">
       <c r="A186">
+        <v>11969</v>
+      </c>
+      <c r="B186">
         <v>21781</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>3328</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>54687</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>17157</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:5">
       <c r="A187">
+        <v>10125</v>
+      </c>
+      <c r="B187">
         <v>22968</v>
       </c>
-      <c r="B187">
+      <c r="C187">
         <v>1766</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>53750</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>17344</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:5">
       <c r="A188">
+        <v>10110</v>
+      </c>
+      <c r="B188">
         <v>22266</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>1750</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <v>52343</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>16672</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:5">
       <c r="A189">
+        <v>11843</v>
+      </c>
+      <c r="B189">
         <v>22766</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>3297</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>53281</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>16594</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:5">
       <c r="A190">
+        <v>10140</v>
+      </c>
+      <c r="B190">
         <v>22157</v>
       </c>
-      <c r="B190">
+      <c r="C190">
         <v>2531</v>
       </c>
-      <c r="C190">
+      <c r="D190">
         <v>54891</v>
       </c>
-      <c r="D190">
+      <c r="E190">
         <v>18047</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:5">
       <c r="A191">
+        <v>10187</v>
+      </c>
+      <c r="B191">
         <v>23000</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>1766</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>51656</v>
       </c>
-      <c r="D191">
+      <c r="E191">
         <v>16687</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:5">
       <c r="A192">
+        <v>11656</v>
+      </c>
+      <c r="B192">
         <v>22422</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>2562</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>54860</v>
       </c>
-      <c r="D192">
+      <c r="E192">
         <v>17844</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:5">
       <c r="A193">
+        <v>10172</v>
+      </c>
+      <c r="B193">
         <v>22172</v>
       </c>
-      <c r="B193">
+      <c r="C193">
         <v>2531</v>
       </c>
-      <c r="C193">
+      <c r="D193">
         <v>53000</v>
       </c>
-      <c r="D193">
+      <c r="E193">
         <v>18125</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:5">
       <c r="A194">
+        <v>10157</v>
+      </c>
+      <c r="B194">
         <v>22359</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>1750</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>53703</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>17063</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:5">
       <c r="A195">
+        <v>11984</v>
+      </c>
+      <c r="B195">
         <v>22172</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>3328</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>53062</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>17281</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:5">
       <c r="A196">
+        <v>10156</v>
+      </c>
+      <c r="B196">
         <v>22500</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>1765</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>54453</v>
       </c>
-      <c r="D196">
+      <c r="E196">
         <v>18250</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:5">
       <c r="A197">
+        <v>10156</v>
+      </c>
+      <c r="B197">
         <v>22516</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>1750</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>54438</v>
       </c>
-      <c r="D197">
+      <c r="E197">
         <v>17391</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:5">
       <c r="A198">
+        <v>11671</v>
+      </c>
+      <c r="B198">
         <v>22156</v>
       </c>
-      <c r="B198">
+      <c r="C198">
         <v>2547</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>55172</v>
       </c>
-      <c r="D198">
+      <c r="E198">
         <v>18140</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:5">
       <c r="A199">
+        <v>10140</v>
+      </c>
+      <c r="B199">
         <v>21313</v>
       </c>
-      <c r="B199">
+      <c r="C199">
         <v>2531</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>55063</v>
       </c>
-      <c r="D199">
+      <c r="E199">
         <v>18562</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:5">
       <c r="A200">
+        <v>10156</v>
+      </c>
+      <c r="B200">
         <v>21938</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>1750</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>54359</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <v>17594</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:5">
       <c r="A201">
+        <v>11829</v>
+      </c>
+      <c r="B201">
         <v>22734</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>3313</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>50828</v>
       </c>
-      <c r="D201">
+      <c r="E201">
         <v>17515</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5">
       <c r="A202">
+        <v>10172</v>
+      </c>
+      <c r="B202">
         <v>21797</v>
       </c>
-      <c r="B202">
+      <c r="C202">
         <v>2531</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>54469</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <v>17312</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:5">
       <c r="A203">
+        <v>10125</v>
+      </c>
+      <c r="B203">
         <v>22843</v>
       </c>
-      <c r="B203">
+      <c r="C203">
         <v>1750</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>54891</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <v>18125</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:5">
       <c r="A204">
+        <v>11781</v>
+      </c>
+      <c r="B204">
         <v>23422</v>
       </c>
-      <c r="B204">
+      <c r="C204">
         <v>3313</v>
       </c>
-      <c r="C204">
+      <c r="D204">
         <v>54437</v>
       </c>
-      <c r="D204">
+      <c r="E204">
         <v>17922</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:5">
       <c r="A205">
+        <v>10141</v>
+      </c>
+      <c r="B205">
         <v>22344</v>
       </c>
-      <c r="B205">
+      <c r="C205">
         <v>2547</v>
       </c>
-      <c r="C205">
+      <c r="D205">
         <v>53625</v>
       </c>
-      <c r="D205">
+      <c r="E205">
         <v>17843</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:5">
       <c r="A206">
+        <v>10172</v>
+      </c>
+      <c r="B206">
         <v>22766</v>
       </c>
-      <c r="B206">
+      <c r="C206">
         <v>1766</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>54406</v>
       </c>
-      <c r="D206">
+      <c r="E206">
         <v>18422</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:5">
       <c r="A207">
+        <v>11985</v>
+      </c>
+      <c r="B207">
         <v>22391</v>
       </c>
-      <c r="B207">
+      <c r="C207">
         <v>3344</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>55062</v>
       </c>
-      <c r="D207">
+      <c r="E207">
         <v>16688</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:5">
       <c r="A208">
+        <v>10156</v>
+      </c>
+      <c r="B208">
         <v>22516</v>
       </c>
-      <c r="B208">
+      <c r="C208">
         <v>1781</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>53750</v>
       </c>
-      <c r="D208">
+      <c r="E208">
         <v>17953</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:5">
       <c r="A209">
+        <v>10125</v>
+      </c>
+      <c r="B209">
         <v>23688</v>
       </c>
-      <c r="B209">
+      <c r="C209">
         <v>1734</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>55219</v>
       </c>
-      <c r="D209">
+      <c r="E209">
         <v>16969</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:5">
       <c r="A210">
+        <v>10157</v>
+      </c>
+      <c r="B210">
         <v>22578</v>
       </c>
-      <c r="B210">
+      <c r="C210">
         <v>2515</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>54125</v>
       </c>
-      <c r="D210">
+      <c r="E210">
         <v>16234</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:5">
       <c r="A211">
+        <v>10188</v>
+      </c>
+      <c r="B211">
         <v>22578</v>
       </c>
-      <c r="B211">
+      <c r="C211">
         <v>2531</v>
       </c>
-      <c r="C211">
+      <c r="D211">
         <v>55797</v>
       </c>
-      <c r="D211">
+      <c r="E211">
         <v>16234</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:5">
       <c r="A212">
+        <v>10156</v>
+      </c>
+      <c r="B212">
         <v>23000</v>
       </c>
-      <c r="B212">
+      <c r="C212">
         <v>1766</v>
       </c>
-      <c r="C212">
+      <c r="D212">
         <v>55297</v>
       </c>
-      <c r="D212">
+      <c r="E212">
         <v>17515</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:5">
       <c r="A213">
+        <v>11953</v>
+      </c>
+      <c r="B213">
         <v>22297</v>
       </c>
-      <c r="B213">
+      <c r="C213">
         <v>3328</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>55172</v>
       </c>
-      <c r="D213">
+      <c r="E213">
         <v>16828</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:5">
       <c r="A214">
+        <v>10156</v>
+      </c>
+      <c r="B214">
         <v>22281</v>
       </c>
-      <c r="B214">
+      <c r="C214">
         <v>1766</v>
       </c>
-      <c r="C214">
+      <c r="D214">
         <v>53797</v>
       </c>
-      <c r="D214">
+      <c r="E214">
         <v>18234</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:5">
       <c r="A215">
+        <v>10141</v>
+      </c>
+      <c r="B215">
         <v>24047</v>
       </c>
-      <c r="B215">
+      <c r="C215">
         <v>1734</v>
       </c>
-      <c r="C215">
+      <c r="D215">
         <v>54391</v>
       </c>
-      <c r="D215">
+      <c r="E215">
         <v>17437</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:5">
       <c r="A216">
+        <v>10172</v>
+      </c>
+      <c r="B216">
         <v>22703</v>
       </c>
-      <c r="B216">
+      <c r="C216">
         <v>2516</v>
       </c>
-      <c r="C216">
+      <c r="D216">
         <v>55312</v>
       </c>
-      <c r="D216">
+      <c r="E216">
         <v>17485</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:5">
       <c r="A217">
+        <v>10157</v>
+      </c>
+      <c r="B217">
         <v>22156</v>
       </c>
-      <c r="B217">
+      <c r="C217">
         <v>2547</v>
       </c>
-      <c r="C217">
+      <c r="D217">
         <v>54218</v>
       </c>
-      <c r="D217">
+      <c r="E217">
         <v>16859</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:5">
       <c r="A218">
+        <v>10156</v>
+      </c>
+      <c r="B218">
         <v>22453</v>
       </c>
-      <c r="B218">
+      <c r="C218">
         <v>1750</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>54937</v>
       </c>
-      <c r="D218">
+      <c r="E218">
         <v>16438</v>
       </c>
     </row>

--- a/statistics/lisa10-benchmarks.xlsx
+++ b/statistics/lisa10-benchmarks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="195" windowWidth="25320" windowHeight="12915" activeTab="4"/>
@@ -10,7 +10,7 @@
     <sheet name="tupling-benchmarks" sheetId="1" r:id="rId1"/>
     <sheet name="forum2-benchmarks" sheetId="2" r:id="rId2"/>
     <sheet name="forum1-benchmarks" sheetId="3" r:id="rId3"/>
-    <sheet name="ios-change-impact-benchmarks" sheetId="4" r:id="rId4"/>
+    <sheet name="ios-enterprise-query-benchmarks" sheetId="4" r:id="rId4"/>
     <sheet name="superf-check-benchmarks" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>units=ms</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>Total time used by queries</t>
+  </si>
+  <si>
+    <t>Which-packets 1</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>Which-packets 2</t>
+  </si>
+  <si>
+    <t>Change-impact 1</t>
+  </si>
+  <si>
+    <t>change-impact 2</t>
   </si>
 </sst>
 </file>
@@ -18835,53 +18850,53 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <f>A10-A6</f>
+        <f t="shared" ref="A1:F1" si="0">A10-A6</f>
         <v>4038.7514239099164</v>
       </c>
       <c r="B1">
-        <f>B10-B6</f>
+        <f t="shared" si="0"/>
         <v>3335.2201492926793</v>
       </c>
       <c r="C1">
-        <f>C10-C6</f>
+        <f t="shared" si="0"/>
         <v>3209.2383774563764</v>
       </c>
       <c r="D1">
-        <f>D10-D6</f>
+        <f t="shared" si="0"/>
         <v>10620.507315784173</v>
       </c>
       <c r="E1">
-        <f>E10-E6</f>
+        <f t="shared" si="0"/>
         <v>313.91338243527019</v>
       </c>
       <c r="F1">
-        <f>F10-F6</f>
+        <f t="shared" si="0"/>
         <v>8665.036618302116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <f>A10+A6</f>
+        <f t="shared" ref="A2:F2" si="1">A10+A6</f>
         <v>4143.7085760900836</v>
       </c>
       <c r="B2">
-        <f>B10+B6</f>
+        <f t="shared" si="1"/>
         <v>3441.3998507073206</v>
       </c>
       <c r="C2">
-        <f>C10+C6</f>
+        <f t="shared" si="1"/>
         <v>3283.2416225436232</v>
       </c>
       <c r="D2">
-        <f>D10+D6</f>
+        <f t="shared" si="1"/>
         <v>10831.052684215829</v>
       </c>
       <c r="E2">
-        <f>E10+E6</f>
+        <f t="shared" si="1"/>
         <v>387.44661756472982</v>
       </c>
       <c r="F2">
-        <f>F10+F6</f>
+        <f t="shared" si="1"/>
         <v>8785.9433816978835</v>
       </c>
     </row>
@@ -18923,27 +18938,27 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <f>CONFIDENCE($G$4, A8, 208)</f>
+        <f t="shared" ref="A6:F6" si="2">CONFIDENCE($G$4, A8, 208)</f>
         <v>52.47857609008377</v>
       </c>
       <c r="B6">
-        <f>CONFIDENCE($G$4, B8, 208)</f>
+        <f t="shared" si="2"/>
         <v>53.089850707320821</v>
       </c>
       <c r="C6">
-        <f>CONFIDENCE($G$4, C8, 208)</f>
+        <f t="shared" si="2"/>
         <v>37.001622543623412</v>
       </c>
       <c r="D6">
-        <f>CONFIDENCE($G$4, D8, 208)</f>
+        <f t="shared" si="2"/>
         <v>105.27268421582775</v>
       </c>
       <c r="E6">
-        <f>CONFIDENCE($G$4, E8, 208)</f>
+        <f t="shared" si="2"/>
         <v>36.766617564729827</v>
       </c>
       <c r="F6">
-        <f>CONFIDENCE($G$4, F8, 208)</f>
+        <f t="shared" si="2"/>
         <v>60.453381697884119</v>
       </c>
       <c r="G6" t="s">
@@ -18957,27 +18972,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <f>STDEV(A12:A1013)</f>
+        <f t="shared" ref="A8:F8" si="3">STDEV(A12:A1013)</f>
         <v>386.15851811284898</v>
       </c>
       <c r="B8">
-        <f>STDEV(B12:B1013)</f>
+        <f t="shared" si="3"/>
         <v>390.65652316441634</v>
       </c>
       <c r="C8">
-        <f>STDEV(C12:C1013)</f>
+        <f t="shared" si="3"/>
         <v>272.27285482535268</v>
       </c>
       <c r="D8">
-        <f>STDEV(D12:D1013)</f>
+        <f t="shared" si="3"/>
         <v>774.63884814183155</v>
       </c>
       <c r="E8">
-        <f>STDEV(E12:E1013)</f>
+        <f t="shared" si="3"/>
         <v>270.54359345509545</v>
       </c>
       <c r="F8">
-        <f>STDEV(F12:F1013)</f>
+        <f t="shared" si="3"/>
         <v>444.84035259059738</v>
       </c>
     </row>
@@ -18988,27 +19003,27 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <f>AVERAGE(A12:A1013)</f>
+        <f t="shared" ref="A10:F10" si="4">AVERAGE(A12:A1013)</f>
         <v>4091.23</v>
       </c>
       <c r="B10">
-        <f>AVERAGE(B12:B1013)</f>
+        <f t="shared" si="4"/>
         <v>3388.31</v>
       </c>
       <c r="C10">
-        <f>AVERAGE(C12:C1013)</f>
+        <f t="shared" si="4"/>
         <v>3246.24</v>
       </c>
       <c r="D10">
-        <f>AVERAGE(D12:D1013)</f>
+        <f t="shared" si="4"/>
         <v>10725.78</v>
       </c>
       <c r="E10">
-        <f>AVERAGE(E12:E1013)</f>
+        <f t="shared" si="4"/>
         <v>350.68</v>
       </c>
       <c r="F10">
-        <f>AVERAGE(F12:F1013)</f>
+        <f t="shared" si="4"/>
         <v>8725.49</v>
       </c>
     </row>
@@ -21022,7 +21037,7 @@
   <dimension ref="A2:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="H12" sqref="A5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21037,53 +21052,53 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2">
-        <f>A10-A6</f>
+        <f t="shared" ref="A2:F2" si="0">A10-A6</f>
         <v>3906.3101158480163</v>
       </c>
       <c r="B2">
-        <f>B10-B6</f>
+        <f t="shared" si="0"/>
         <v>3181.8983712334916</v>
       </c>
       <c r="C2">
-        <f>C10-C6</f>
+        <f t="shared" si="0"/>
         <v>3145.8962240167598</v>
       </c>
       <c r="D2">
-        <f>D10-D6</f>
+        <f t="shared" si="0"/>
         <v>10274.844081530264</v>
       </c>
       <c r="E2">
-        <f>E10-E6</f>
+        <f t="shared" si="0"/>
         <v>215.10015105973983</v>
       </c>
       <c r="F2">
-        <f>F10-F6</f>
+        <f t="shared" si="0"/>
         <v>2730.2533194328039</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <f>A10+A6</f>
+        <f t="shared" ref="A3:F3" si="1">A10+A6</f>
         <v>4007.7098841519842</v>
       </c>
       <c r="B3">
-        <f>B10+B6</f>
+        <f t="shared" si="1"/>
         <v>3245.9416287665085</v>
       </c>
       <c r="C3">
-        <f>C10+C6</f>
+        <f t="shared" si="1"/>
         <v>3236.88377598324</v>
       </c>
       <c r="D3">
-        <f>D10+D6</f>
+        <f t="shared" si="1"/>
         <v>10449.795918469736</v>
       </c>
       <c r="E3">
-        <f>E10+E6</f>
+        <f t="shared" si="1"/>
         <v>229.89984894026017</v>
       </c>
       <c r="F3">
-        <f>F10+F6</f>
+        <f t="shared" si="1"/>
         <v>2771.6666805671962</v>
       </c>
     </row>
@@ -21117,27 +21132,27 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <f>CONFIDENCE($G$6, A8, 208)</f>
+        <f t="shared" ref="A6:F6" si="2">CONFIDENCE($G$6, A8, 208)</f>
         <v>50.699884151984165</v>
       </c>
       <c r="B6">
-        <f>CONFIDENCE($G$6, B8, 208)</f>
+        <f t="shared" si="2"/>
         <v>32.021628766508499</v>
       </c>
       <c r="C6">
-        <f>CONFIDENCE($G$6, C8, 208)</f>
+        <f t="shared" si="2"/>
         <v>45.493775983240113</v>
       </c>
       <c r="D6">
-        <f>CONFIDENCE($G$6, D8, 208)</f>
+        <f t="shared" si="2"/>
         <v>87.475918469736627</v>
       </c>
       <c r="E6">
-        <f>CONFIDENCE($G$6, E8, 208)</f>
+        <f t="shared" si="2"/>
         <v>7.3998489402601741</v>
       </c>
       <c r="F6">
-        <f>CONFIDENCE($G$6, F8, 208)</f>
+        <f t="shared" si="2"/>
         <v>20.706680567196187</v>
       </c>
       <c r="G6">
@@ -21154,27 +21169,27 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <f>STDEV(A12:A1013)</f>
+        <f t="shared" ref="A8:F8" si="3">STDEV(A12:A1013)</f>
         <v>373.07018580336012</v>
       </c>
       <c r="B8">
-        <f>STDEV(B12:B1013)</f>
+        <f t="shared" si="3"/>
         <v>235.62805307080805</v>
       </c>
       <c r="C8">
-        <f>STDEV(C12:C1013)</f>
+        <f t="shared" si="3"/>
         <v>334.76154320363685</v>
       </c>
       <c r="D8">
-        <f>STDEV(D12:D1013)</f>
+        <f t="shared" si="3"/>
         <v>643.68307152329157</v>
       </c>
       <c r="E8">
-        <f>STDEV(E12:E1013)</f>
+        <f t="shared" si="3"/>
         <v>54.451071540596814</v>
       </c>
       <c r="F8">
-        <f>STDEV(F12:F1013)</f>
+        <f t="shared" si="3"/>
         <v>152.36810292144196</v>
       </c>
       <c r="G8" t="s">
@@ -21188,27 +21203,27 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <f>AVERAGE(A12:A1013)</f>
+        <f t="shared" ref="A10:F10" si="4">AVERAGE(A12:A1013)</f>
         <v>3957.01</v>
       </c>
       <c r="B10">
-        <f>AVERAGE(B12:B1013)</f>
+        <f t="shared" si="4"/>
         <v>3213.92</v>
       </c>
       <c r="C10">
-        <f>AVERAGE(C12:C1013)</f>
+        <f t="shared" si="4"/>
         <v>3191.39</v>
       </c>
       <c r="D10">
-        <f>AVERAGE(D12:D1013)</f>
+        <f t="shared" si="4"/>
         <v>10362.32</v>
       </c>
       <c r="E10">
-        <f>AVERAGE(E12:E1013)</f>
+        <f t="shared" si="4"/>
         <v>222.5</v>
       </c>
       <c r="F10">
-        <f>AVERAGE(F12:F1013)</f>
+        <f t="shared" si="4"/>
         <v>2750.96</v>
       </c>
     </row>
@@ -23219,22 +23234,2178 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f>CONFIDENCE($G$6, A8, 100)</f>
+        <v>158.54803624064542</v>
+      </c>
+      <c r="B6">
+        <f>CONFIDENCE($G$6, B8, 100)</f>
+        <v>24.210142584408239</v>
+      </c>
+      <c r="C6">
+        <f>CONFIDENCE($G$6, C8, 100)</f>
+        <v>58.034434981333639</v>
+      </c>
+      <c r="D6">
+        <f>CONFIDENCE($G$6, D8, 100)</f>
+        <v>80.356714414035409</v>
+      </c>
+      <c r="E6">
+        <f>CONFIDENCE($G$6, E8, 100)</f>
+        <v>80.692781715497787</v>
+      </c>
+      <c r="F6">
+        <f>CONFIDENCE($G$6, F8, 100)</f>
+        <v>147.92983405282007</v>
+      </c>
+      <c r="G6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f t="shared" ref="A8:F8" si="0">STDEV(A12:A1013)</f>
+        <v>808.93341658955012</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>123.52340540629703</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>296.09949692495303</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>409.99077048292173</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>411.70543107930632</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>754.75792014379726</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f t="shared" ref="A10:F10" si="1">AVERAGE(A12:A1013)</f>
+        <v>10810.495049504951</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>1587.3564356435643</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>7529.2178217821784</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>23317.475247524751</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3167.0891089108909</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>24039.891089108911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>10469</v>
+      </c>
+      <c r="B13">
+        <v>1672</v>
+      </c>
+      <c r="C13">
+        <v>7234</v>
+      </c>
+      <c r="D13">
+        <v>22985</v>
+      </c>
+      <c r="E13">
+        <v>3172</v>
+      </c>
+      <c r="F13">
+        <v>24625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>10078</v>
+      </c>
+      <c r="B14">
+        <v>1640</v>
+      </c>
+      <c r="C14">
+        <v>7125</v>
+      </c>
+      <c r="D14">
+        <v>23297</v>
+      </c>
+      <c r="E14">
+        <v>2484</v>
+      </c>
+      <c r="F14">
+        <v>23954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>11563</v>
+      </c>
+      <c r="B15">
+        <v>1641</v>
+      </c>
+      <c r="C15">
+        <v>7281</v>
+      </c>
+      <c r="D15">
+        <v>22922</v>
+      </c>
+      <c r="E15">
+        <v>3797</v>
+      </c>
+      <c r="F15">
+        <v>23719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>10110</v>
+      </c>
+      <c r="B16">
+        <v>1641</v>
+      </c>
+      <c r="C16">
+        <v>7703</v>
+      </c>
+      <c r="D16">
+        <v>22703</v>
+      </c>
+      <c r="E16">
+        <v>3141</v>
+      </c>
+      <c r="F16">
+        <v>23312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>10109</v>
+      </c>
+      <c r="B17">
+        <v>1625</v>
+      </c>
+      <c r="C17">
+        <v>7703</v>
+      </c>
+      <c r="D17">
+        <v>23469</v>
+      </c>
+      <c r="E17">
+        <v>3234</v>
+      </c>
+      <c r="F17">
+        <v>21344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>10094</v>
+      </c>
+      <c r="B18">
+        <v>1469</v>
+      </c>
+      <c r="C18">
+        <v>7750</v>
+      </c>
+      <c r="D18">
+        <v>23406</v>
+      </c>
+      <c r="E18">
+        <v>3203</v>
+      </c>
+      <c r="F18">
+        <v>24484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>10375</v>
+      </c>
+      <c r="B19">
+        <v>1657</v>
+      </c>
+      <c r="C19">
+        <v>7171</v>
+      </c>
+      <c r="D19">
+        <v>23125</v>
+      </c>
+      <c r="E19">
+        <v>3188</v>
+      </c>
+      <c r="F19">
+        <v>24484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>10141</v>
+      </c>
+      <c r="B20">
+        <v>1641</v>
+      </c>
+      <c r="C20">
+        <v>7140</v>
+      </c>
+      <c r="D20">
+        <v>22813</v>
+      </c>
+      <c r="E20">
+        <v>3297</v>
+      </c>
+      <c r="F20">
+        <v>23578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>11609</v>
+      </c>
+      <c r="B21">
+        <v>1437</v>
+      </c>
+      <c r="C21">
+        <v>7313</v>
+      </c>
+      <c r="D21">
+        <v>22734</v>
+      </c>
+      <c r="E21">
+        <v>3157</v>
+      </c>
+      <c r="F21">
+        <v>23578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>10141</v>
+      </c>
+      <c r="B22">
+        <v>1406</v>
+      </c>
+      <c r="C22">
+        <v>7750</v>
+      </c>
+      <c r="D22">
+        <v>22766</v>
+      </c>
+      <c r="E22">
+        <v>3703</v>
+      </c>
+      <c r="F22">
+        <v>21375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>10156</v>
+      </c>
+      <c r="B23">
+        <v>1625</v>
+      </c>
+      <c r="C23">
+        <v>7750</v>
+      </c>
+      <c r="D23">
+        <v>22922</v>
+      </c>
+      <c r="E23">
+        <v>3235</v>
+      </c>
+      <c r="F23">
+        <v>23375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>10171</v>
+      </c>
+      <c r="B24">
+        <v>1468</v>
+      </c>
+      <c r="C24">
+        <v>7704</v>
+      </c>
+      <c r="D24">
+        <v>23031</v>
+      </c>
+      <c r="E24">
+        <v>3765</v>
+      </c>
+      <c r="F24">
+        <v>23750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>10172</v>
+      </c>
+      <c r="B25">
+        <v>1609</v>
+      </c>
+      <c r="C25">
+        <v>7719</v>
+      </c>
+      <c r="D25">
+        <v>22797</v>
+      </c>
+      <c r="E25">
+        <v>3312</v>
+      </c>
+      <c r="F25">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>10172</v>
+      </c>
+      <c r="B26">
+        <v>1641</v>
+      </c>
+      <c r="C26">
+        <v>7734</v>
+      </c>
+      <c r="D26">
+        <v>23344</v>
+      </c>
+      <c r="E26">
+        <v>2531</v>
+      </c>
+      <c r="F26">
+        <v>23860</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>10172</v>
+      </c>
+      <c r="B27">
+        <v>1656</v>
+      </c>
+      <c r="C27">
+        <v>7750</v>
+      </c>
+      <c r="D27">
+        <v>22688</v>
+      </c>
+      <c r="E27">
+        <v>3078</v>
+      </c>
+      <c r="F27">
+        <v>23656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>10156</v>
+      </c>
+      <c r="B28">
+        <v>1657</v>
+      </c>
+      <c r="C28">
+        <v>7765</v>
+      </c>
+      <c r="D28">
+        <v>23406</v>
+      </c>
+      <c r="E28">
+        <v>3329</v>
+      </c>
+      <c r="F28">
+        <v>21406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>10156</v>
+      </c>
+      <c r="B29">
+        <v>1422</v>
+      </c>
+      <c r="C29">
+        <v>7781</v>
+      </c>
+      <c r="D29">
+        <v>23219</v>
+      </c>
+      <c r="E29">
+        <v>3203</v>
+      </c>
+      <c r="F29">
+        <v>24015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>10172</v>
+      </c>
+      <c r="B30">
+        <v>1672</v>
+      </c>
+      <c r="C30">
+        <v>7750</v>
+      </c>
+      <c r="D30">
+        <v>23609</v>
+      </c>
+      <c r="E30">
+        <v>3266</v>
+      </c>
+      <c r="F30">
+        <v>23937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>10172</v>
+      </c>
+      <c r="B31">
+        <v>1641</v>
+      </c>
+      <c r="C31">
+        <v>7766</v>
+      </c>
+      <c r="D31">
+        <v>23578</v>
+      </c>
+      <c r="E31">
+        <v>2672</v>
+      </c>
+      <c r="F31">
+        <v>24062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>10156</v>
+      </c>
+      <c r="B32">
+        <v>1422</v>
+      </c>
+      <c r="C32">
+        <v>7781</v>
+      </c>
+      <c r="D32">
+        <v>22844</v>
+      </c>
+      <c r="E32">
+        <v>3906</v>
+      </c>
+      <c r="F32">
+        <v>23469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>10219</v>
+      </c>
+      <c r="B33">
+        <v>1656</v>
+      </c>
+      <c r="C33">
+        <v>7781</v>
+      </c>
+      <c r="D33">
+        <v>23563</v>
+      </c>
+      <c r="E33">
+        <v>2656</v>
+      </c>
+      <c r="F33">
+        <v>23672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>10609</v>
+      </c>
+      <c r="B34">
+        <v>1703</v>
+      </c>
+      <c r="C34">
+        <v>7640</v>
+      </c>
+      <c r="D34">
+        <v>23532</v>
+      </c>
+      <c r="E34">
+        <v>2671</v>
+      </c>
+      <c r="F34">
+        <v>24297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>10203</v>
+      </c>
+      <c r="B35">
+        <v>1437</v>
+      </c>
+      <c r="C35">
+        <v>7797</v>
+      </c>
+      <c r="D35">
+        <v>22750</v>
+      </c>
+      <c r="E35">
+        <v>3203</v>
+      </c>
+      <c r="F35">
+        <v>23422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>10234</v>
+      </c>
+      <c r="B36">
+        <v>1500</v>
+      </c>
+      <c r="C36">
+        <v>7156</v>
+      </c>
+      <c r="D36">
+        <v>24000</v>
+      </c>
+      <c r="E36">
+        <v>3109</v>
+      </c>
+      <c r="F36">
+        <v>23891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>10187</v>
+      </c>
+      <c r="B37">
+        <v>1672</v>
+      </c>
+      <c r="C37">
+        <v>7203</v>
+      </c>
+      <c r="D37">
+        <v>23375</v>
+      </c>
+      <c r="E37">
+        <v>2735</v>
+      </c>
+      <c r="F37">
+        <v>23859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>11843</v>
+      </c>
+      <c r="B38">
+        <v>2078</v>
+      </c>
+      <c r="C38">
+        <v>7344</v>
+      </c>
+      <c r="D38">
+        <v>23172</v>
+      </c>
+      <c r="E38">
+        <v>3218</v>
+      </c>
+      <c r="F38">
+        <v>24047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>12047</v>
+      </c>
+      <c r="B39">
+        <v>1657</v>
+      </c>
+      <c r="C39">
+        <v>7312</v>
+      </c>
+      <c r="D39">
+        <v>23000</v>
+      </c>
+      <c r="E39">
+        <v>3188</v>
+      </c>
+      <c r="F39">
+        <v>24343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>10828</v>
+      </c>
+      <c r="B40">
+        <v>1516</v>
+      </c>
+      <c r="C40">
+        <v>7234</v>
+      </c>
+      <c r="D40">
+        <v>23203</v>
+      </c>
+      <c r="E40">
+        <v>3250</v>
+      </c>
+      <c r="F40">
+        <v>24078</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>10266</v>
+      </c>
+      <c r="B41">
+        <v>1641</v>
+      </c>
+      <c r="C41">
+        <v>7812</v>
+      </c>
+      <c r="D41">
+        <v>23578</v>
+      </c>
+      <c r="E41">
+        <v>2485</v>
+      </c>
+      <c r="F41">
+        <v>24156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>11078</v>
+      </c>
+      <c r="B42">
+        <v>1422</v>
+      </c>
+      <c r="C42">
+        <v>7172</v>
+      </c>
+      <c r="D42">
+        <v>23140</v>
+      </c>
+      <c r="E42">
+        <v>3188</v>
+      </c>
+      <c r="F42">
+        <v>24609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>10140</v>
+      </c>
+      <c r="B43">
+        <v>1656</v>
+      </c>
+      <c r="C43">
+        <v>7235</v>
+      </c>
+      <c r="D43">
+        <v>23468</v>
+      </c>
+      <c r="E43">
+        <v>2610</v>
+      </c>
+      <c r="F43">
+        <v>23765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>11672</v>
+      </c>
+      <c r="B44">
+        <v>1625</v>
+      </c>
+      <c r="C44">
+        <v>7359</v>
+      </c>
+      <c r="D44">
+        <v>23031</v>
+      </c>
+      <c r="E44">
+        <v>3766</v>
+      </c>
+      <c r="F44">
+        <v>24141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>10156</v>
+      </c>
+      <c r="B45">
+        <v>1657</v>
+      </c>
+      <c r="C45">
+        <v>7156</v>
+      </c>
+      <c r="D45">
+        <v>24187</v>
+      </c>
+      <c r="E45">
+        <v>2453</v>
+      </c>
+      <c r="F45">
+        <v>24735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>10328</v>
+      </c>
+      <c r="B46">
+        <v>1672</v>
+      </c>
+      <c r="C46">
+        <v>7250</v>
+      </c>
+      <c r="D46">
+        <v>23000</v>
+      </c>
+      <c r="E46">
+        <v>3156</v>
+      </c>
+      <c r="F46">
+        <v>23969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>12016</v>
+      </c>
+      <c r="B47">
+        <v>1453</v>
+      </c>
+      <c r="C47">
+        <v>7375</v>
+      </c>
+      <c r="D47">
+        <v>23266</v>
+      </c>
+      <c r="E47">
+        <v>3141</v>
+      </c>
+      <c r="F47">
+        <v>24953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>10609</v>
+      </c>
+      <c r="B48">
+        <v>1484</v>
+      </c>
+      <c r="C48">
+        <v>6938</v>
+      </c>
+      <c r="D48">
+        <v>24078</v>
+      </c>
+      <c r="E48">
+        <v>3297</v>
+      </c>
+      <c r="F48">
+        <v>24562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>10344</v>
+      </c>
+      <c r="B49">
+        <v>1687</v>
+      </c>
+      <c r="C49">
+        <v>7594</v>
+      </c>
+      <c r="D49">
+        <v>23203</v>
+      </c>
+      <c r="E49">
+        <v>3875</v>
+      </c>
+      <c r="F49">
+        <v>25688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>11110</v>
+      </c>
+      <c r="B50">
+        <v>1422</v>
+      </c>
+      <c r="C50">
+        <v>7531</v>
+      </c>
+      <c r="D50">
+        <v>23703</v>
+      </c>
+      <c r="E50">
+        <v>3766</v>
+      </c>
+      <c r="F50">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>10500</v>
+      </c>
+      <c r="B51">
+        <v>1750</v>
+      </c>
+      <c r="C51">
+        <v>7563</v>
+      </c>
+      <c r="D51">
+        <v>23906</v>
+      </c>
+      <c r="E51">
+        <v>3266</v>
+      </c>
+      <c r="F51">
+        <v>24031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>11484</v>
+      </c>
+      <c r="B52">
+        <v>1437</v>
+      </c>
+      <c r="C52">
+        <v>6625</v>
+      </c>
+      <c r="D52">
+        <v>23453</v>
+      </c>
+      <c r="E52">
+        <v>3844</v>
+      </c>
+      <c r="F52">
+        <v>24922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>10281</v>
+      </c>
+      <c r="B53">
+        <v>1468</v>
+      </c>
+      <c r="C53">
+        <v>7469</v>
+      </c>
+      <c r="D53">
+        <v>23813</v>
+      </c>
+      <c r="E53">
+        <v>3140</v>
+      </c>
+      <c r="F53">
+        <v>25282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>10671</v>
+      </c>
+      <c r="B54">
+        <v>1687</v>
+      </c>
+      <c r="C54">
+        <v>7453</v>
+      </c>
+      <c r="D54">
+        <v>22797</v>
+      </c>
+      <c r="E54">
+        <v>3781</v>
+      </c>
+      <c r="F54">
+        <v>21454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>11750</v>
+      </c>
+      <c r="B55">
+        <v>1422</v>
+      </c>
+      <c r="C55">
+        <v>7594</v>
+      </c>
+      <c r="D55">
+        <v>23172</v>
+      </c>
+      <c r="E55">
+        <v>3187</v>
+      </c>
+      <c r="F55">
+        <v>24344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>10125</v>
+      </c>
+      <c r="B56">
+        <v>1656</v>
+      </c>
+      <c r="C56">
+        <v>7437</v>
+      </c>
+      <c r="D56">
+        <v>23032</v>
+      </c>
+      <c r="E56">
+        <v>3187</v>
+      </c>
+      <c r="F56">
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>10156</v>
+      </c>
+      <c r="B57">
+        <v>1437</v>
+      </c>
+      <c r="C57">
+        <v>7469</v>
+      </c>
+      <c r="D57">
+        <v>22860</v>
+      </c>
+      <c r="E57">
+        <v>3312</v>
+      </c>
+      <c r="F57">
+        <v>23406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>11813</v>
+      </c>
+      <c r="B58">
+        <v>1453</v>
+      </c>
+      <c r="C58">
+        <v>7594</v>
+      </c>
+      <c r="D58">
+        <v>22968</v>
+      </c>
+      <c r="E58">
+        <v>3235</v>
+      </c>
+      <c r="F58">
+        <v>24578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>10703</v>
+      </c>
+      <c r="B59">
+        <v>1453</v>
+      </c>
+      <c r="C59">
+        <v>7547</v>
+      </c>
+      <c r="D59">
+        <v>23750</v>
+      </c>
+      <c r="E59">
+        <v>3312</v>
+      </c>
+      <c r="F59">
+        <v>25110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>11688</v>
+      </c>
+      <c r="B60">
+        <v>1609</v>
+      </c>
+      <c r="C60">
+        <v>7579</v>
+      </c>
+      <c r="D60">
+        <v>23968</v>
+      </c>
+      <c r="E60">
+        <v>2547</v>
+      </c>
+      <c r="F60">
+        <v>24781</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>10250</v>
+      </c>
+      <c r="B61">
+        <v>1422</v>
+      </c>
+      <c r="C61">
+        <v>7500</v>
+      </c>
+      <c r="D61">
+        <v>22921</v>
+      </c>
+      <c r="E61">
+        <v>3172</v>
+      </c>
+      <c r="F61">
+        <v>23750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>13000</v>
+      </c>
+      <c r="B62">
+        <v>1672</v>
+      </c>
+      <c r="C62">
+        <v>7688</v>
+      </c>
+      <c r="D62">
+        <v>23609</v>
+      </c>
+      <c r="E62">
+        <v>3313</v>
+      </c>
+      <c r="F62">
+        <v>24109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>10281</v>
+      </c>
+      <c r="B63">
+        <v>1437</v>
+      </c>
+      <c r="C63">
+        <v>7500</v>
+      </c>
+      <c r="D63">
+        <v>23422</v>
+      </c>
+      <c r="E63">
+        <v>3297</v>
+      </c>
+      <c r="F63">
+        <v>24375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>10563</v>
+      </c>
+      <c r="B64">
+        <v>1422</v>
+      </c>
+      <c r="C64">
+        <v>6812</v>
+      </c>
+      <c r="D64">
+        <v>22703</v>
+      </c>
+      <c r="E64">
+        <v>3188</v>
+      </c>
+      <c r="F64">
+        <v>23828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>11938</v>
+      </c>
+      <c r="B65">
+        <v>1453</v>
+      </c>
+      <c r="C65">
+        <v>7656</v>
+      </c>
+      <c r="D65">
+        <v>23563</v>
+      </c>
+      <c r="E65">
+        <v>3172</v>
+      </c>
+      <c r="F65">
+        <v>24094</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>10234</v>
+      </c>
+      <c r="B66">
+        <v>1688</v>
+      </c>
+      <c r="C66">
+        <v>7484</v>
+      </c>
+      <c r="D66">
+        <v>23266</v>
+      </c>
+      <c r="E66">
+        <v>3234</v>
+      </c>
+      <c r="F66">
+        <v>24312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>11797</v>
+      </c>
+      <c r="B67">
+        <v>1672</v>
+      </c>
+      <c r="C67">
+        <v>7656</v>
+      </c>
+      <c r="D67">
+        <v>23203</v>
+      </c>
+      <c r="E67">
+        <v>2547</v>
+      </c>
+      <c r="F67">
+        <v>23656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>10156</v>
+      </c>
+      <c r="B68">
+        <v>1422</v>
+      </c>
+      <c r="C68">
+        <v>7500</v>
+      </c>
+      <c r="D68">
+        <v>22985</v>
+      </c>
+      <c r="E68">
+        <v>3156</v>
+      </c>
+      <c r="F68">
+        <v>23984</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>11797</v>
+      </c>
+      <c r="B69">
+        <v>1672</v>
+      </c>
+      <c r="C69">
+        <v>7641</v>
+      </c>
+      <c r="D69">
+        <v>22734</v>
+      </c>
+      <c r="E69">
+        <v>3875</v>
+      </c>
+      <c r="F69">
+        <v>23578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>10250</v>
+      </c>
+      <c r="B70">
+        <v>1625</v>
+      </c>
+      <c r="C70">
+        <v>7515</v>
+      </c>
+      <c r="D70">
+        <v>23078</v>
+      </c>
+      <c r="E70">
+        <v>3016</v>
+      </c>
+      <c r="F70">
+        <v>24047</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>10172</v>
+      </c>
+      <c r="B71">
+        <v>1640</v>
+      </c>
+      <c r="C71">
+        <v>7532</v>
+      </c>
+      <c r="D71">
+        <v>23562</v>
+      </c>
+      <c r="E71">
+        <v>2469</v>
+      </c>
+      <c r="F71">
+        <v>23969</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>10188</v>
+      </c>
+      <c r="B72">
+        <v>1453</v>
+      </c>
+      <c r="C72">
+        <v>6812</v>
+      </c>
+      <c r="D72">
+        <v>23828</v>
+      </c>
+      <c r="E72">
+        <v>3750</v>
+      </c>
+      <c r="F72">
+        <v>24079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>10188</v>
+      </c>
+      <c r="B73">
+        <v>1672</v>
+      </c>
+      <c r="C73">
+        <v>7500</v>
+      </c>
+      <c r="D73">
+        <v>23532</v>
+      </c>
+      <c r="E73">
+        <v>2578</v>
+      </c>
+      <c r="F73">
+        <v>23750</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>11860</v>
+      </c>
+      <c r="B74">
+        <v>1656</v>
+      </c>
+      <c r="C74">
+        <v>7625</v>
+      </c>
+      <c r="D74">
+        <v>23188</v>
+      </c>
+      <c r="E74">
+        <v>3890</v>
+      </c>
+      <c r="F74">
+        <v>23516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>10203</v>
+      </c>
+      <c r="B75">
+        <v>1437</v>
+      </c>
+      <c r="C75">
+        <v>7485</v>
+      </c>
+      <c r="D75">
+        <v>23203</v>
+      </c>
+      <c r="E75">
+        <v>3156</v>
+      </c>
+      <c r="F75">
+        <v>24375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>11922</v>
+      </c>
+      <c r="B76">
+        <v>1437</v>
+      </c>
+      <c r="C76">
+        <v>7641</v>
+      </c>
+      <c r="D76">
+        <v>23422</v>
+      </c>
+      <c r="E76">
+        <v>2656</v>
+      </c>
+      <c r="F76">
+        <v>25359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>10313</v>
+      </c>
+      <c r="B77">
+        <v>1656</v>
+      </c>
+      <c r="C77">
+        <v>7485</v>
+      </c>
+      <c r="D77">
+        <v>23140</v>
+      </c>
+      <c r="E77">
+        <v>3172</v>
+      </c>
+      <c r="F77">
+        <v>24328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>11828</v>
+      </c>
+      <c r="B78">
+        <v>1437</v>
+      </c>
+      <c r="C78">
+        <v>7641</v>
+      </c>
+      <c r="D78">
+        <v>22875</v>
+      </c>
+      <c r="E78">
+        <v>3219</v>
+      </c>
+      <c r="F78">
+        <v>23921</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>10141</v>
+      </c>
+      <c r="B79">
+        <v>1719</v>
+      </c>
+      <c r="C79">
+        <v>7500</v>
+      </c>
+      <c r="D79">
+        <v>22922</v>
+      </c>
+      <c r="E79">
+        <v>3765</v>
+      </c>
+      <c r="F79">
+        <v>23375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>11797</v>
+      </c>
+      <c r="B80">
+        <v>1437</v>
+      </c>
+      <c r="C80">
+        <v>7625</v>
+      </c>
+      <c r="D80">
+        <v>22954</v>
+      </c>
+      <c r="E80">
+        <v>3093</v>
+      </c>
+      <c r="F80">
+        <v>23407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>10141</v>
+      </c>
+      <c r="B81">
+        <v>1468</v>
+      </c>
+      <c r="C81">
+        <v>7485</v>
+      </c>
+      <c r="D81">
+        <v>22812</v>
+      </c>
+      <c r="E81">
+        <v>3797</v>
+      </c>
+      <c r="F81">
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>12672</v>
+      </c>
+      <c r="B82">
+        <v>1640</v>
+      </c>
+      <c r="C82">
+        <v>7781</v>
+      </c>
+      <c r="D82">
+        <v>23438</v>
+      </c>
+      <c r="E82">
+        <v>2516</v>
+      </c>
+      <c r="F82">
+        <v>23796</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>10141</v>
+      </c>
+      <c r="B83">
+        <v>1422</v>
+      </c>
+      <c r="C83">
+        <v>7500</v>
+      </c>
+      <c r="D83">
+        <v>23016</v>
+      </c>
+      <c r="E83">
+        <v>3093</v>
+      </c>
+      <c r="F83">
+        <v>23969</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>11813</v>
+      </c>
+      <c r="B84">
+        <v>1656</v>
+      </c>
+      <c r="C84">
+        <v>7672</v>
+      </c>
+      <c r="D84">
+        <v>22781</v>
+      </c>
+      <c r="E84">
+        <v>3797</v>
+      </c>
+      <c r="F84">
+        <v>23844</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>10156</v>
+      </c>
+      <c r="B85">
+        <v>1438</v>
+      </c>
+      <c r="C85">
+        <v>7515</v>
+      </c>
+      <c r="D85">
+        <v>22922</v>
+      </c>
+      <c r="E85">
+        <v>3203</v>
+      </c>
+      <c r="F85">
+        <v>23797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>11844</v>
+      </c>
+      <c r="B86">
+        <v>1625</v>
+      </c>
+      <c r="C86">
+        <v>7687</v>
+      </c>
+      <c r="D86">
+        <v>22813</v>
+      </c>
+      <c r="E86">
+        <v>3265</v>
+      </c>
+      <c r="F86">
+        <v>23719</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>10156</v>
+      </c>
+      <c r="B87">
+        <v>1641</v>
+      </c>
+      <c r="C87">
+        <v>7515</v>
+      </c>
+      <c r="D87">
+        <v>23203</v>
+      </c>
+      <c r="E87">
+        <v>3157</v>
+      </c>
+      <c r="F87">
+        <v>23859</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>11859</v>
+      </c>
+      <c r="B88">
+        <v>1609</v>
+      </c>
+      <c r="C88">
+        <v>7656</v>
+      </c>
+      <c r="D88">
+        <v>23469</v>
+      </c>
+      <c r="E88">
+        <v>3156</v>
+      </c>
+      <c r="F88">
+        <v>23860</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>10171</v>
+      </c>
+      <c r="B89">
+        <v>1438</v>
+      </c>
+      <c r="C89">
+        <v>7515</v>
+      </c>
+      <c r="D89">
+        <v>23094</v>
+      </c>
+      <c r="E89">
+        <v>3813</v>
+      </c>
+      <c r="F89">
+        <v>23968</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>11813</v>
+      </c>
+      <c r="B90">
+        <v>1453</v>
+      </c>
+      <c r="C90">
+        <v>7641</v>
+      </c>
+      <c r="D90">
+        <v>23062</v>
+      </c>
+      <c r="E90">
+        <v>3188</v>
+      </c>
+      <c r="F90">
+        <v>23812</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>10219</v>
+      </c>
+      <c r="B91">
+        <v>1703</v>
+      </c>
+      <c r="C91">
+        <v>7984</v>
+      </c>
+      <c r="D91">
+        <v>23563</v>
+      </c>
+      <c r="E91">
+        <v>3968</v>
+      </c>
+      <c r="F91">
+        <v>24313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>11188</v>
+      </c>
+      <c r="B92">
+        <v>1468</v>
+      </c>
+      <c r="C92">
+        <v>7578</v>
+      </c>
+      <c r="D92">
+        <v>23797</v>
+      </c>
+      <c r="E92">
+        <v>3563</v>
+      </c>
+      <c r="F92">
+        <v>24297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>10250</v>
+      </c>
+      <c r="B93">
+        <v>1688</v>
+      </c>
+      <c r="C93">
+        <v>7672</v>
+      </c>
+      <c r="D93">
+        <v>24281</v>
+      </c>
+      <c r="E93">
+        <v>3187</v>
+      </c>
+      <c r="F93">
+        <v>24703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>11953</v>
+      </c>
+      <c r="B94">
+        <v>1688</v>
+      </c>
+      <c r="C94">
+        <v>7765</v>
+      </c>
+      <c r="D94">
+        <v>24719</v>
+      </c>
+      <c r="E94">
+        <v>2672</v>
+      </c>
+      <c r="F94">
+        <v>24797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>10250</v>
+      </c>
+      <c r="B95">
+        <v>1891</v>
+      </c>
+      <c r="C95">
+        <v>7656</v>
+      </c>
+      <c r="D95">
+        <v>23828</v>
+      </c>
+      <c r="E95">
+        <v>3313</v>
+      </c>
+      <c r="F95">
+        <v>24203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>11844</v>
+      </c>
+      <c r="B96">
+        <v>1469</v>
+      </c>
+      <c r="C96">
+        <v>7687</v>
+      </c>
+      <c r="D96">
+        <v>22985</v>
+      </c>
+      <c r="E96">
+        <v>3328</v>
+      </c>
+      <c r="F96">
+        <v>24109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>10875</v>
+      </c>
+      <c r="B97">
+        <v>1688</v>
+      </c>
+      <c r="C97">
+        <v>7891</v>
+      </c>
+      <c r="D97">
+        <v>23546</v>
+      </c>
+      <c r="E97">
+        <v>2594</v>
+      </c>
+      <c r="F97">
+        <v>24391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>10672</v>
+      </c>
+      <c r="B98">
+        <v>1672</v>
+      </c>
+      <c r="C98">
+        <v>6875</v>
+      </c>
+      <c r="D98">
+        <v>23547</v>
+      </c>
+      <c r="E98">
+        <v>2547</v>
+      </c>
+      <c r="F98">
+        <v>25062</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>10359</v>
+      </c>
+      <c r="B99">
+        <v>1515</v>
+      </c>
+      <c r="C99">
+        <v>7750</v>
+      </c>
+      <c r="D99">
+        <v>23438</v>
+      </c>
+      <c r="E99">
+        <v>2578</v>
+      </c>
+      <c r="F99">
+        <v>24578</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>12234</v>
+      </c>
+      <c r="B100">
+        <v>1671</v>
+      </c>
+      <c r="C100">
+        <v>6813</v>
+      </c>
+      <c r="D100">
+        <v>23953</v>
+      </c>
+      <c r="E100">
+        <v>3313</v>
+      </c>
+      <c r="F100">
+        <v>24265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>10172</v>
+      </c>
+      <c r="B101">
+        <v>1672</v>
+      </c>
+      <c r="C101">
+        <v>7562</v>
+      </c>
+      <c r="D101">
+        <v>23407</v>
+      </c>
+      <c r="E101">
+        <v>3375</v>
+      </c>
+      <c r="F101">
+        <v>23453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>12797</v>
+      </c>
+      <c r="B102">
+        <v>1672</v>
+      </c>
+      <c r="C102">
+        <v>7968</v>
+      </c>
+      <c r="D102">
+        <v>23141</v>
+      </c>
+      <c r="E102">
+        <v>3125</v>
+      </c>
+      <c r="F102">
+        <v>24016</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>10828</v>
+      </c>
+      <c r="B103">
+        <v>1672</v>
+      </c>
+      <c r="C103">
+        <v>8047</v>
+      </c>
+      <c r="D103">
+        <v>24078</v>
+      </c>
+      <c r="E103">
+        <v>2656</v>
+      </c>
+      <c r="F103">
+        <v>24532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>13047</v>
+      </c>
+      <c r="B104">
+        <v>1766</v>
+      </c>
+      <c r="C104">
+        <v>8344</v>
+      </c>
+      <c r="D104">
+        <v>23421</v>
+      </c>
+      <c r="E104">
+        <v>2657</v>
+      </c>
+      <c r="F104">
+        <v>24468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>10953</v>
+      </c>
+      <c r="B105">
+        <v>1687</v>
+      </c>
+      <c r="C105">
+        <v>7594</v>
+      </c>
+      <c r="D105">
+        <v>23469</v>
+      </c>
+      <c r="E105">
+        <v>2562</v>
+      </c>
+      <c r="F105">
+        <v>25125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>10531</v>
+      </c>
+      <c r="B106">
+        <v>1656</v>
+      </c>
+      <c r="C106">
+        <v>7797</v>
+      </c>
+      <c r="D106">
+        <v>23750</v>
+      </c>
+      <c r="E106">
+        <v>3125</v>
+      </c>
+      <c r="F106">
+        <v>24266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>10422</v>
+      </c>
+      <c r="B107">
+        <v>1656</v>
+      </c>
+      <c r="C107">
+        <v>6922</v>
+      </c>
+      <c r="D107">
+        <v>23594</v>
+      </c>
+      <c r="E107">
+        <v>2562</v>
+      </c>
+      <c r="F107">
+        <v>26078</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>10406</v>
+      </c>
+      <c r="B108">
+        <v>1469</v>
+      </c>
+      <c r="C108">
+        <v>7672</v>
+      </c>
+      <c r="D108">
+        <v>23296</v>
+      </c>
+      <c r="E108">
+        <v>3250</v>
+      </c>
+      <c r="F108">
+        <v>24219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>10437</v>
+      </c>
+      <c r="B109">
+        <v>1734</v>
+      </c>
+      <c r="C109">
+        <v>7329</v>
+      </c>
+      <c r="D109">
+        <v>23234</v>
+      </c>
+      <c r="E109">
+        <v>3906</v>
+      </c>
+      <c r="F109">
+        <v>25188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>10391</v>
+      </c>
+      <c r="B110">
+        <v>1641</v>
+      </c>
+      <c r="C110">
+        <v>7781</v>
+      </c>
+      <c r="D110">
+        <v>23250</v>
+      </c>
+      <c r="E110">
+        <v>3265</v>
+      </c>
+      <c r="F110">
+        <v>24047</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>10344</v>
+      </c>
+      <c r="B111">
+        <v>1718</v>
+      </c>
+      <c r="C111">
+        <v>7094</v>
+      </c>
+      <c r="D111">
+        <v>24000</v>
+      </c>
+      <c r="E111">
+        <v>3188</v>
+      </c>
+      <c r="F111">
+        <v>24203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>10422</v>
+      </c>
+      <c r="B112">
+        <v>1469</v>
+      </c>
+      <c r="C112">
+        <v>7828</v>
+      </c>
+      <c r="D112">
+        <v>23656</v>
+      </c>
+      <c r="E112">
+        <v>2485</v>
+      </c>
+      <c r="F112">
+        <v>23859</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>12218</v>
+      </c>
+      <c r="B113">
+        <v>1687</v>
+      </c>
+      <c r="C113">
+        <v>8188</v>
+      </c>
+      <c r="D113">
+        <v>23766</v>
+      </c>
+      <c r="E113">
+        <v>2703</v>
+      </c>
+      <c r="F113">
+        <v>24218</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23246,7 +25417,7 @@
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1">
         <f>A11-A7</f>
         <v>10584.652498207124</v>
@@ -23272,7 +25443,7 @@
         <v>71950.79785435331</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <f>A11+A7</f>
         <v>10802.945587917278</v>
@@ -23298,7 +25469,7 @@
         <v>72404.88635617301</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -23315,7 +25486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -23323,7 +25494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7">
         <f>CONFIDENCE($G$7, A9, 208)</f>
         <v>109.14654485507783</v>
@@ -23348,7 +25519,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -23356,7 +25527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9">
         <f>STDEV(A13:A1014)</f>
         <v>803.14427636192329</v>
@@ -23381,12 +25552,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11">
         <f>AVERAGE(A13:A1014)</f>
         <v>10693.799043062201</v>
@@ -23407,8 +25578,12 @@
         <f>AVERAGE(E13:E1014)</f>
         <v>17482.87081339713</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I11">
+        <f>D11+E11</f>
+        <v>72177.84210526316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>10343</v>
       </c>
@@ -23425,7 +25600,7 @@
         <v>17235</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>10391</v>
       </c>
@@ -23442,7 +25617,7 @@
         <v>17047</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>10266</v>
       </c>
@@ -23459,7 +25634,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>10593</v>
       </c>
